--- a/resources/testDataExcel.xlsx
+++ b/resources/testDataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakharrastogi01\eclipse-workspace\practice\TDDEXIT\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A300012-ABCF-45D9-B51A-0EF46FEE9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978B4D1-9071-44BC-AF4A-464D4DA0D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Working</t>
   </si>
   <si>
-    <t>whenUserEntersValidFromAndValidToAndValidDate</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>whenUserEntersValidFromAndInValidToAndValidDate</t>
-  </si>
-  <si>
-    <t>whenUserEntersValidFromAndValidToAndInValidDate</t>
-  </si>
-  <si>
     <t>49 XYZ 2021</t>
   </si>
   <si>
@@ -121,6 +112,51 @@
   </si>
   <si>
     <t>When_User_Clicks_Bus_Hire_And_Data</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Career</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Change_Travel_Date</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Contact_Us</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Email_And_Sms</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Help</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Mobile_Version</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Offer_btn</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Goibibo_btn</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_MakeMyTrip_btn</t>
+  </si>
+  <si>
+    <t>When_User_Enter_Valid_From_Valid_To_and_Valid_Date</t>
+  </si>
+  <si>
+    <t>When_User_Enter_Valid_From_InValid_To_and_Valid_Date</t>
+  </si>
+  <si>
+    <t>When_User_Enter_Valid_From_Valid_To_and_InValid_Date</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Show_Ticket</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_SignIn</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Global_Site</t>
   </si>
 </sst>
 </file>
@@ -484,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7E3110-C9B0-4787-9AA9-D79BD10544B1}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
@@ -529,7 +565,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -538,13 +574,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -553,22 +589,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -577,7 +613,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -586,13 +622,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -601,7 +637,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -609,7 +645,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -617,7 +653,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -625,7 +661,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -633,7 +669,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -641,7 +677,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -649,7 +685,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -657,9 +693,105 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
     </row>

--- a/resources/testDataExcel.xlsx
+++ b/resources/testDataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakharrastogi01\eclipse-workspace\practice\TDDEXIT\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978B4D1-9071-44BC-AF4A-464D4DA0D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703DE507-720E-45E9-8C0F-25651B1D0205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>When_User_Clicks_Global_Site</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_User_Agreement</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Insurance_Partner</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Agent_Reg_And_Data</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7E3110-C9B0-4787-9AA9-D79BD10544B1}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,8 +542,8 @@
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="53.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -635,17 +644,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -653,7 +663,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -661,7 +671,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -669,7 +679,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -677,7 +687,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -685,7 +695,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -693,7 +703,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -701,7 +711,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -709,7 +719,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -717,7 +727,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -725,7 +735,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -733,7 +743,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -741,7 +751,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -749,7 +759,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -757,7 +767,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -765,7 +775,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -773,7 +783,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -781,17 +791,41 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
     </row>

--- a/resources/testDataExcel.xlsx
+++ b/resources/testDataExcel.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakharrastogi01\eclipse-workspace\practice\TDDEXIT\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703DE507-720E-45E9-8C0F-25651B1D0205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15213CA0-AC90-47C0-A329-9B73629DA312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="RedBusTest" sheetId="1" r:id="rId1"/>
+    <sheet name="ModifyBusTest" sheetId="6" r:id="rId2"/>
+    <sheet name="HelpTest" sheetId="5" r:id="rId3"/>
+    <sheet name="BusOpTest" sheetId="4" r:id="rId4"/>
+    <sheet name="BusHireTest" sheetId="2" r:id="rId5"/>
+    <sheet name="SearchBusTest" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -51,39 +56,18 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Expected Title</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>28-Jun 2021</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
-    <t>Delhi to Patna(bihar)</t>
-  </si>
-  <si>
     <t>1542chennai</t>
   </si>
   <si>
-    <t>Book Bus Travels, AC Volvo Bus, rPool &amp; Bus Hire - redBus India</t>
-  </si>
-  <si>
-    <t>28-July 2021</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -166,6 +150,54 @@
   </si>
   <si>
     <t>When_User_Clicks_Agent_Reg_And_Data</t>
+  </si>
+  <si>
+    <t>Delhi railway station, Mori Gate, Delhi, India</t>
+  </si>
+  <si>
+    <t>Jaipur, Rajasthan, India</t>
+  </si>
+  <si>
+    <t>Nop</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Bus_Pool_Android</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>9876543201</t>
+  </si>
+  <si>
+    <t>23-07-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>26-07-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Bus_Hire_And_Data_Outstation</t>
+  </si>
+  <si>
+    <t>When_User_Clicks_Bus_Hire_And_Data_Local</t>
+  </si>
+  <si>
+    <t>When_user_clicks_Modify_bus</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>7/22/2021</t>
   </si>
 </sst>
 </file>
@@ -529,17 +561,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7E3110-C9B0-4787-9AA9-D79BD10544B1}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="1" max="1" width="61.36328125" customWidth="1"/>
     <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="53.26953125" customWidth="1"/>
@@ -553,6 +585,232 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F052AB-28F7-4006-8942-B8C5132DC6F5}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,272 +820,299 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB7CC2-9C5D-4EBC-B25B-F8C87BB84C5F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00289943-B9F8-4A19-A638-1FBD59D40A6B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE621B-E951-4B33-B6D4-1312B98EE6CB}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="32.26953125" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456198BE-ADBD-49D1-A4C9-77E812A8E20B}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44399</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44405</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/testDataExcel.xlsx
+++ b/resources/testDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prakharrastogi01\eclipse-workspace\practice\TDDEXIT\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15213CA0-AC90-47C0-A329-9B73629DA312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED83B32-6216-4643-9703-CA347C6F62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="RedBusTest" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F052AB-28F7-4006-8942-B8C5132DC6F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456198BE-ADBD-49D1-A4C9-77E812A8E20B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
